--- a/UT.Vol.BLL/HelperFiles/Skill.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Skill.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Table</t>
   </si>
@@ -28,13 +28,13 @@
     <t>ReqCert</t>
   </si>
   <si>
-    <t>ActiveFlag</t>
+    <t>ActiveFlg</t>
   </si>
   <si>
     <t>Query</t>
   </si>
   <si>
-    <t>[Vol].[tblSkill</t>
+    <t>[Vol].[tblSkill]</t>
   </si>
   <si>
     <t>153B9006-1488-4CA1-950A-32E28F7B699D</t>
@@ -62,51 +62,6 @@
   </si>
   <si>
     <t>F8389EDE-E282-4AAE-B6B7-94A99FF1D85A</t>
-  </si>
-  <si>
-    <t>12524D39-2C60-487E-8318-B68CE2E856B2</t>
-  </si>
-  <si>
-    <t>Professional Teddy Bear</t>
-  </si>
-  <si>
-    <t>F335DD60-96B5-4D33-A72F-010A627C81CE</t>
-  </si>
-  <si>
-    <t>ECFD663F-92B3-4603-9E96-CF10CE56399E</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>9E958EBB-4271-4BB6-A48D-ED557B7D6D1A</t>
-  </si>
-  <si>
-    <t>F56D6852-5AD2-4CEB-B252-B2D3912E201D</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>5DE42514-89D9-4691-8C1F-46A595779050</t>
-  </si>
-  <si>
-    <t>317FF53A-839A-40A9-975F-00188914A01C</t>
-  </si>
-  <si>
-    <t>Carpentry</t>
-  </si>
-  <si>
-    <t>2A7A64BB-B8FB-4CA6-B86E-EE4345BEE258</t>
-  </si>
-  <si>
-    <t>6EA7DFFE-0F44-4FF0-9732-2BC0EC974A78</t>
-  </si>
-  <si>
-    <t>CISCO Certificate</t>
-  </si>
-  <si>
-    <t>D237BE04-5B00-49C7-A507-9EDAAF00721C</t>
   </si>
 </sst>
 </file>
@@ -210,8 +165,8 @@
         <v>0</v>
       </c>
       <c t="str" r="G2">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('153B9006-1488-4CA1-950A-32E28F7B699D,SQL Server 2010,85CD9529-322B-4B63-9F04-9E03924999BE,0,0)</v>
+        <f>((((((((((((((((((((("INSERT INTO " &amp; A2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('153B9006-1488-4CA1-950A-32E28F7B699D','SQL Server 2010','85CD9529-322B-4B63-9F04-9E03924999BE','0','0')</v>
       </c>
     </row>
     <row r="3">
@@ -234,8 +189,8 @@
         <v>1</v>
       </c>
       <c t="str" r="G3">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A3) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('C87F23E9-8F8C-406D-9FBF-E15043179F09,Redditor,6497B3D4-A86F-441C-9856-5E00EB410B9D,1,1)</v>
+        <f>((((((((((((((((((((("INSERT INTO " &amp; A3) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('C87F23E9-8F8C-406D-9FBF-E15043179F09','Redditor','6497B3D4-A86F-441C-9856-5E00EB410B9D','1','1')</v>
       </c>
     </row>
     <row r="4">
@@ -258,128 +213,8 @@
         <v>0</v>
       </c>
       <c t="str" r="G4">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A4) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('990B091D-6A0D-4543-B766-C37B684F8081,4Chan Troll,F8389EDE-E282-4AAE-B6B7-94A99FF1D85A,1,0)</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" r="A5">
-        <v>7</v>
-      </c>
-      <c t="s" r="B5">
-        <v>17</v>
-      </c>
-      <c t="s" r="C5">
-        <v>18</v>
-      </c>
-      <c t="s" r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c t="str" r="G5">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A5) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; R[-2]C[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('C87F23E9-8F8C-406D-9FBF-E15043179F09,Professional Teddy Bear,F335DD60-96B5-4D33-A72F-010A627C81CE,1,0)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" r="A6">
-        <v>7</v>
-      </c>
-      <c t="s" r="B6">
-        <v>20</v>
-      </c>
-      <c t="s" r="C6">
-        <v>21</v>
-      </c>
-      <c t="s" r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c t="str" r="G6">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A6) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('ECFD663F-92B3-4603-9E96-CF10CE56399E,running,9E958EBB-4271-4BB6-A48D-ED557B7D6D1A,0,1)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" r="A7">
-        <v>7</v>
-      </c>
-      <c t="s" r="B7">
-        <v>23</v>
-      </c>
-      <c t="s" r="C7">
-        <v>24</v>
-      </c>
-      <c t="s" r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c t="str" r="G7">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A7) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; R[-3]C[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('990B091D-6A0D-4543-B766-C37B684F8081,CSS,5DE42514-89D9-4691-8C1F-46A595779050,0,1)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" r="A8">
-        <v>7</v>
-      </c>
-      <c t="s" r="B8">
-        <v>26</v>
-      </c>
-      <c t="s" r="C8">
-        <v>27</v>
-      </c>
-      <c t="s" r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c t="str" r="G8">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A8) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; R[-3]C[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('12524D39-2C60-487E-8318-B68CE2E856B2,Carpentry,2A7A64BB-B8FB-4CA6-B86E-EE4345BEE258,1,0)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" r="A9">
-        <v>7</v>
-      </c>
-      <c t="s" r="B9">
-        <v>29</v>
-      </c>
-      <c t="s" r="C9">
-        <v>30</v>
-      </c>
-      <c t="s" r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c t="str" r="G9">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A9) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; R[-3]C[-5]) &amp;",") &amp; RC[-4]) &amp;",") &amp; RC[-3]) &amp;",") &amp; RC[-2]) &amp;",") &amp; RC[-1]) &amp; ")"</f>
-        <v>INSERT INTO [Vol].[tblSkill (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlag) VALUES('ECFD663F-92B3-4603-9E96-CF10CE56399E,CISCO Certificate,D237BE04-5B00-49C7-A507-9EDAAF00721C,0,0)</v>
+        <f>((((((((((((((((((((("INSERT INTO " &amp; A4) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('990B091D-6A0D-4543-B766-C37B684F8081','4Chan Troll','F8389EDE-E282-4AAE-B6B7-94A99FF1D85A','1','0')</v>
       </c>
     </row>
   </sheetData>

--- a/UT.Vol.BLL/HelperFiles/Skill.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Skill.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Table</t>
   </si>
@@ -43,25 +43,16 @@
     <t>SQL Server 2010</t>
   </si>
   <si>
-    <t>85CD9529-322B-4B63-9F04-9E03924999BE</t>
-  </si>
-  <si>
     <t>C87F23E9-8F8C-406D-9FBF-E15043179F09</t>
   </si>
   <si>
     <t>Redditor</t>
   </si>
   <si>
-    <t>6497B3D4-A86F-441C-9856-5E00EB410B9D</t>
-  </si>
-  <si>
     <t>990B091D-6A0D-4543-B766-C37B684F8081</t>
   </si>
   <si>
     <t>4Chan Troll</t>
-  </si>
-  <si>
-    <t>F8389EDE-E282-4AAE-B6B7-94A99FF1D85A</t>
   </si>
 </sst>
 </file>
@@ -155,9 +146,6 @@
       <c t="s" r="C2">
         <v>9</v>
       </c>
-      <c t="s" r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -165,8 +153,8 @@
         <v>0</v>
       </c>
       <c t="str" r="G2">
-        <f>((((((((((((((((((((("INSERT INTO " &amp; A2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('153B9006-1488-4CA1-950A-32E28F7B699D','SQL Server 2010','85CD9529-322B-4B63-9F04-9E03924999BE','0','0')</v>
+        <f>((((((((((((((((("INSERT INTO " &amp; A2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,ReqCert,ActiveFlg) VALUES('153B9006-1488-4CA1-950A-32E28F7B699D','SQL Server 2010','0','0')</v>
       </c>
     </row>
     <row r="3">
@@ -174,13 +162,13 @@
         <v>7</v>
       </c>
       <c t="s" r="B3">
+        <v>10</v>
+      </c>
+      <c t="s" r="C3">
         <v>11</v>
       </c>
-      <c t="s" r="C3">
-        <v>12</v>
-      </c>
       <c t="s" r="D3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -190,7 +178,7 @@
       </c>
       <c t="str" r="G3">
         <f>((((((((((((((((((((("INSERT INTO " &amp; A3) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('C87F23E9-8F8C-406D-9FBF-E15043179F09','Redditor','6497B3D4-A86F-441C-9856-5E00EB410B9D','1','1')</v>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('C87F23E9-8F8C-406D-9FBF-E15043179F09','Redditor','153B9006-1488-4CA1-950A-32E28F7B699D','1','1')</v>
       </c>
     </row>
     <row r="4">
@@ -198,13 +186,13 @@
         <v>7</v>
       </c>
       <c t="s" r="B4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c t="s" r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c t="s" r="D4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -214,7 +202,7 @@
       </c>
       <c t="str" r="G4">
         <f>((((((((((((((((((((("INSERT INTO " &amp; A4) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ",") &amp; $E$1) &amp; ",") &amp; $F$1) &amp; ") VALUES('") &amp; RC[-5]) &amp;"','") &amp; RC[-4]) &amp;"','") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('990B091D-6A0D-4543-B766-C37B684F8081','4Chan Troll','F8389EDE-E282-4AAE-B6B7-94A99FF1D85A','1','0')</v>
+        <v>INSERT INTO [Vol].[tblSkill] (SkillID,SkillName,MstrSkillID,ReqCert,ActiveFlg) VALUES('990B091D-6A0D-4543-B766-C37B684F8081','4Chan Troll','C87F23E9-8F8C-406D-9FBF-E15043179F09','1','0')</v>
       </c>
     </row>
   </sheetData>
